--- a/biology/Zoologie/Arge/Arge.xlsx
+++ b/biology/Zoologie/Arge/Arge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylotoma
 Arge est un genre d'insectes de la famille des Argidae. Il regroupe des hyménoptères symphytes dont certains sont appelés tenthrèdes.
@@ -512,11 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Arge est décrit par Franz von Paula Schrank en 1802[1]
-Synonyme
-Ce genre a un synonyme : Hylotoma Pierre-André Latreille 1802.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Arge est décrit par Franz von Paula Schrank en 1802
 </t>
         </is>
       </c>
@@ -542,16 +554,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a un synonyme : Hylotoma Pierre-André Latreille 1802.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arge</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (26 juillet 2020)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (26 juillet 2020) :
 Arge humeralis (Beauvois)
-Arge pectoralis (Leach)
-Espèces rencontrées en Europe
-Selon Fauna Europaea                                      (11 août 2014)[3] :
+Arge pectoralis (Leach)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arge</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces rencontrées en Europe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea                                      (11 août 2014) :
 Arge auripennis Konow 1891
 Arge beckeri (Tournier 1889)
 Arge berberidis Schrank 1802
@@ -586,9 +671,43 @@
 Arge stecki Benson 1939
 Arge tergestina (Kriechbaumer 1876)
 Arge thoracica (Spinola 1808)
-Arge ustulata (Linnaeus 1758)
-Autre espèce
-Arge similis (Vollenhoven, 1860)</t>
+Arge ustulata (Linnaeus 1758)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arge</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autre espèce</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Arge similis (Vollenhoven, 1860)</t>
         </is>
       </c>
     </row>
